--- a/quiz-app/build/wordlist.xlsx
+++ b/quiz-app/build/wordlist.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大連\WebApp\quiz-app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daisuke/Documents/GitHub/dalianquizappREACT/quiz-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6DB7BD1-06B8-4264-BFA2-F561EFDCA69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1807D9D-3D3C-714D-B86A-1CE9CB0C1C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="1740" windowWidth="18360" windowHeight="10335"/>
+    <workbookView xWindow="9160" yWindow="1680" windowWidth="18360" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wordlist" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="210">
   <si>
     <t>動物</t>
   </si>
@@ -34,564 +48,635 @@
     <t>turtle</t>
   </si>
   <si>
+    <t>羊</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>とり</t>
+  </si>
+  <si>
+    <t>鸟</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>うさぎ</t>
+  </si>
+  <si>
+    <t>兔子</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>ねこ</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>いぬ</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>ぞう</t>
+  </si>
+  <si>
+    <t>大象</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>さる</t>
+  </si>
+  <si>
+    <t>猴子</t>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>くじら</t>
+  </si>
+  <si>
+    <t>鲸鱼</t>
+  </si>
+  <si>
+    <t>whale</t>
+  </si>
+  <si>
+    <t>たこ</t>
+  </si>
+  <si>
+    <t>章鱼</t>
+  </si>
+  <si>
+    <t>octopus</t>
+  </si>
+  <si>
+    <t>食べ物</t>
+  </si>
+  <si>
+    <t>たまご</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>にく</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>さかな</t>
+  </si>
+  <si>
+    <t>鱼</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>やさい</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>vegetable</t>
+  </si>
+  <si>
+    <t>くだもの</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>パン</t>
+  </si>
+  <si>
+    <t>面包</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>コーヒー</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>おちゃ</t>
+  </si>
+  <si>
+    <t>茶</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>ビール</t>
+  </si>
+  <si>
+    <t>啤酒</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>ワイン</t>
+  </si>
+  <si>
+    <t>葡萄酒</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>服</t>
+  </si>
+  <si>
+    <t>ふく</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>くつ</t>
+  </si>
+  <si>
+    <t>鞋</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>ぼうし</t>
+  </si>
+  <si>
+    <t>帽子</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>めがね</t>
+  </si>
+  <si>
+    <t>眼镜</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>うでどけい</t>
+  </si>
+  <si>
+    <t>手表</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>かばん</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>くつした</t>
+  </si>
+  <si>
+    <t>袜子</t>
+  </si>
+  <si>
+    <t>socks</t>
+  </si>
+  <si>
+    <t>ゆびわ</t>
+  </si>
+  <si>
+    <t>戒指</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>くちべに</t>
+  </si>
+  <si>
+    <t>口红</t>
+  </si>
+  <si>
+    <t>lipstick</t>
+  </si>
+  <si>
+    <t>家族</t>
+  </si>
+  <si>
+    <t>かぞく</t>
+  </si>
+  <si>
+    <t>家庭</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>ちち</t>
+  </si>
+  <si>
+    <t>父亲</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>はは</t>
+  </si>
+  <si>
+    <t>母亲</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>あに</t>
+  </si>
+  <si>
+    <t>兄</t>
+  </si>
+  <si>
+    <t>older brother</t>
+  </si>
+  <si>
+    <t>あね</t>
+  </si>
+  <si>
+    <t>姐</t>
+  </si>
+  <si>
+    <t>older sister</t>
+  </si>
+  <si>
+    <t>おとうと</t>
+  </si>
+  <si>
+    <t>弟</t>
+  </si>
+  <si>
+    <t>younger brother</t>
+  </si>
+  <si>
+    <t>いもうと</t>
+  </si>
+  <si>
+    <t>妹</t>
+  </si>
+  <si>
+    <t>younger sister</t>
+  </si>
+  <si>
+    <t>こども</t>
+  </si>
+  <si>
+    <t>孩子</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>おじいさん</t>
+  </si>
+  <si>
+    <t>爷爷</t>
+  </si>
+  <si>
+    <t>grandfather</t>
+  </si>
+  <si>
+    <t>おばあさん</t>
+  </si>
+  <si>
+    <t>奶奶</t>
+  </si>
+  <si>
+    <t>grandmother</t>
+  </si>
+  <si>
+    <t>色</t>
+  </si>
+  <si>
+    <t>あか</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>あお</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>きいろ</t>
+  </si>
+  <si>
+    <t>黄色</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>みどり</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>むらさき</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>くろ</t>
+  </si>
+  <si>
+    <t>黑色</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>しろ</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>ちゃいろ</t>
+  </si>
+  <si>
+    <t>棕色</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>はいいろ</t>
+  </si>
+  <si>
+    <t>灰色</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>仕事</t>
+  </si>
+  <si>
+    <t>かいしゃいん</t>
+  </si>
+  <si>
+    <t>公司职员</t>
+  </si>
+  <si>
+    <t>office worker</t>
+  </si>
+  <si>
+    <t>せんせい</t>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>いしゃ</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>かんごし</t>
+  </si>
+  <si>
+    <t>护士</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>けんきゅうしゃ</t>
+  </si>
+  <si>
+    <t>研究员</t>
+  </si>
+  <si>
+    <t>researcher</t>
+  </si>
+  <si>
+    <t>こうむいん</t>
+  </si>
+  <si>
+    <t>行政人员</t>
+  </si>
+  <si>
+    <t>administrative staff</t>
+  </si>
+  <si>
+    <t>ぎんこういん</t>
+  </si>
+  <si>
+    <t>银行职员</t>
+  </si>
+  <si>
+    <t>bank clerk</t>
+  </si>
+  <si>
+    <t>べんごし</t>
+  </si>
+  <si>
+    <t>律师</t>
+  </si>
+  <si>
+    <t>lawyer</t>
+  </si>
+  <si>
+    <t>かいけい</t>
+  </si>
+  <si>
+    <t>会计</t>
+  </si>
+  <si>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>乗り物</t>
+  </si>
+  <si>
+    <t>じてんしゃ</t>
+  </si>
+  <si>
+    <t>自行车</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>くるま</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>でんしゃ</t>
+  </si>
+  <si>
+    <t>电车</t>
+  </si>
+  <si>
+    <t>tram</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>bonodori</t>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>buncho-kuro</t>
+  </si>
+  <si>
+    <t>buncho-w</t>
+  </si>
+  <si>
+    <t>byoin</t>
+  </si>
+  <si>
+    <t>erimaki</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>inko</t>
+  </si>
+  <si>
+    <t>jinja</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>murasaki</t>
+  </si>
+  <si>
+    <t>oldbrother</t>
+  </si>
+  <si>
+    <t>onigiri</t>
+  </si>
+  <si>
+    <t>osaka</t>
+  </si>
+  <si>
+    <t>sakura</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>sumo</t>
+  </si>
+  <si>
+    <t>sushi</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
     <t>ひつじ</t>
-  </si>
-  <si>
-    <t>羊</t>
-  </si>
-  <si>
-    <t>sheep</t>
-  </si>
-  <si>
-    <t>とり</t>
-  </si>
-  <si>
-    <t>鸟</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>うさぎ</t>
-  </si>
-  <si>
-    <t>兔子</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>ねこ</t>
-  </si>
-  <si>
-    <t>猫</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>いぬ</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>狗</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>ぞう</t>
-  </si>
-  <si>
-    <t>大象</t>
-  </si>
-  <si>
-    <t>elephant</t>
-  </si>
-  <si>
-    <t>さる</t>
-  </si>
-  <si>
-    <t>猴子</t>
-  </si>
-  <si>
-    <t>monkey</t>
-  </si>
-  <si>
-    <t>くじら</t>
-  </si>
-  <si>
-    <t>鲸鱼</t>
-  </si>
-  <si>
-    <t>whale</t>
-  </si>
-  <si>
-    <t>たこ</t>
-  </si>
-  <si>
-    <t>章鱼</t>
-  </si>
-  <si>
-    <t>octopus</t>
-  </si>
-  <si>
-    <t>食べ物</t>
-  </si>
-  <si>
-    <t>たまご</t>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>にく</t>
-  </si>
-  <si>
-    <t>肉</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>さかな</t>
-  </si>
-  <si>
-    <t>鱼</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>やさい</t>
-  </si>
-  <si>
-    <t>蔬菜</t>
-  </si>
-  <si>
-    <t>vegetable</t>
-  </si>
-  <si>
-    <t>くだもの</t>
-  </si>
-  <si>
-    <t>水果</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>パン</t>
-  </si>
-  <si>
-    <t>面包</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>コーヒー</t>
-  </si>
-  <si>
-    <t>咖啡</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>おちゃ</t>
-  </si>
-  <si>
-    <t>茶</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>ビール</t>
-  </si>
-  <si>
-    <t>啤酒</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>ワイン</t>
-  </si>
-  <si>
-    <t>葡萄酒</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>服</t>
-  </si>
-  <si>
-    <t>ふく</t>
-  </si>
-  <si>
-    <t>衣服</t>
-  </si>
-  <si>
-    <t>clothes</t>
-  </si>
-  <si>
-    <t>くつ</t>
-  </si>
-  <si>
-    <t>鞋</t>
-  </si>
-  <si>
-    <t>shoes</t>
-  </si>
-  <si>
-    <t>ぼうし</t>
-  </si>
-  <si>
-    <t>帽子</t>
-  </si>
-  <si>
-    <t>hat</t>
-  </si>
-  <si>
-    <t>めがね</t>
-  </si>
-  <si>
-    <t>眼镜</t>
-  </si>
-  <si>
-    <t>glasses</t>
-  </si>
-  <si>
-    <t>うでどけい</t>
-  </si>
-  <si>
-    <t>手表</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>かばん</t>
-  </si>
-  <si>
-    <t>包</t>
-  </si>
-  <si>
-    <t>bag</t>
-  </si>
-  <si>
-    <t>くつした</t>
-  </si>
-  <si>
-    <t>袜子</t>
-  </si>
-  <si>
-    <t>socks</t>
-  </si>
-  <si>
-    <t>ゆびわ</t>
-  </si>
-  <si>
-    <t>戒指</t>
-  </si>
-  <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>くちべに</t>
-  </si>
-  <si>
-    <t>口红</t>
-  </si>
-  <si>
-    <t>lipstick</t>
-  </si>
-  <si>
-    <t>家族</t>
-  </si>
-  <si>
-    <t>かぞく</t>
-  </si>
-  <si>
-    <t>家庭</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>ちち</t>
-  </si>
-  <si>
-    <t>父亲</t>
-  </si>
-  <si>
-    <t>father</t>
-  </si>
-  <si>
-    <t>はは</t>
-  </si>
-  <si>
-    <t>母亲</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>あに</t>
-  </si>
-  <si>
-    <t>兄</t>
-  </si>
-  <si>
-    <t>older brother</t>
-  </si>
-  <si>
-    <t>あね</t>
-  </si>
-  <si>
-    <t>姐</t>
-  </si>
-  <si>
-    <t>older sister</t>
-  </si>
-  <si>
-    <t>おとうと</t>
-  </si>
-  <si>
-    <t>弟</t>
-  </si>
-  <si>
-    <t>younger brother</t>
-  </si>
-  <si>
-    <t>いもうと</t>
-  </si>
-  <si>
-    <t>妹</t>
-  </si>
-  <si>
-    <t>younger sister</t>
-  </si>
-  <si>
-    <t>こども</t>
-  </si>
-  <si>
-    <t>孩子</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>おじいさん</t>
-  </si>
-  <si>
-    <t>爷爷</t>
-  </si>
-  <si>
-    <t>grandfather</t>
-  </si>
-  <si>
-    <t>おばあさん</t>
-  </si>
-  <si>
-    <t>奶奶</t>
-  </si>
-  <si>
-    <t>grandmother</t>
-  </si>
-  <si>
-    <t>色</t>
-  </si>
-  <si>
-    <t>あか</t>
-  </si>
-  <si>
-    <t>红色</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>あお</t>
-  </si>
-  <si>
-    <t>蓝色</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>きいろ</t>
-  </si>
-  <si>
-    <t>黄色</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>みどり</t>
-  </si>
-  <si>
-    <t>绿色</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>むらさき</t>
-  </si>
-  <si>
-    <t>紫色</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>くろ</t>
-  </si>
-  <si>
-    <t>黑色</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>しろ</t>
-  </si>
-  <si>
-    <t>白色</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>ちゃいろ</t>
-  </si>
-  <si>
-    <t>棕色</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>はいいろ</t>
-  </si>
-  <si>
-    <t>灰色</t>
-  </si>
-  <si>
-    <t>gray</t>
-  </si>
-  <si>
-    <t>仕事</t>
-  </si>
-  <si>
-    <t>かいしゃいん</t>
-  </si>
-  <si>
-    <t>公司职员</t>
-  </si>
-  <si>
-    <t>office worker</t>
-  </si>
-  <si>
-    <t>せんせい</t>
-  </si>
-  <si>
-    <t>老师</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>いしゃ</t>
-  </si>
-  <si>
-    <t>医生</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>かんごし</t>
-  </si>
-  <si>
-    <t>护士</t>
-  </si>
-  <si>
-    <t>nurse</t>
-  </si>
-  <si>
-    <t>けんきゅうしゃ</t>
-  </si>
-  <si>
-    <t>研究员</t>
-  </si>
-  <si>
-    <t>researcher</t>
-  </si>
-  <si>
-    <t>こうむいん</t>
-  </si>
-  <si>
-    <t>行政人员</t>
-  </si>
-  <si>
-    <t>administrative staff</t>
-  </si>
-  <si>
-    <t>ぎんこういん</t>
-  </si>
-  <si>
-    <t>银行职员</t>
-  </si>
-  <si>
-    <t>bank clerk</t>
-  </si>
-  <si>
-    <t>べんごし</t>
-  </si>
-  <si>
-    <t>律师</t>
-  </si>
-  <si>
-    <t>lawyer</t>
-  </si>
-  <si>
-    <t>かいけい</t>
-  </si>
-  <si>
-    <t>会计</t>
-  </si>
-  <si>
-    <t>accountant</t>
-  </si>
-  <si>
-    <t>乗り物</t>
-  </si>
-  <si>
-    <t>じてんしゃ</t>
-  </si>
-  <si>
-    <t>自行车</t>
-  </si>
-  <si>
-    <t>bicycle</t>
-  </si>
-  <si>
-    <t>くるま</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>でんしゃ</t>
-  </si>
-  <si>
-    <t>电车</t>
-  </si>
-  <si>
-    <t>tram</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -599,7 +684,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -607,7 +692,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="游ゴシック Light"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -616,7 +701,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -625,7 +710,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -634,7 +719,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -642,7 +727,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -650,7 +735,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -658,7 +743,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -666,7 +751,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -675,7 +760,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -684,7 +769,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -692,7 +777,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -701,7 +786,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -709,7 +794,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -718,7 +803,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -727,7 +812,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -735,7 +820,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1082,8 +1174,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1438,14 +1532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1466,13 +1560,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1480,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1494,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1508,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1522,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1536,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1550,13 +1644,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1564,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1578,716 +1672,2325 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
         <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
         <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
         <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
         <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
         <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
         <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
         <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
         <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>91</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
         <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
         <v>100</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
         <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
         <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
         <v>109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
         <v>112</v>
-      </c>
-      <c r="C37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
         <v>115</v>
-      </c>
-      <c r="C38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
         <v>118</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
         <v>121</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>122</v>
-      </c>
-      <c r="C40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
         <v>125</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" t="s">
         <v>128</v>
-      </c>
-      <c r="C42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
         <v>131</v>
-      </c>
-      <c r="C43" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" t="s">
         <v>134</v>
-      </c>
-      <c r="C44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
         <v>137</v>
-      </c>
-      <c r="C45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
         <v>140</v>
-      </c>
-      <c r="C46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
         <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
         <v>146</v>
-      </c>
-      <c r="C48" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
         <v>149</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>150</v>
-      </c>
-      <c r="C49" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
         <v>153</v>
-      </c>
-      <c r="C50" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" t="s">
         <v>156</v>
-      </c>
-      <c r="C51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
         <v>159</v>
-      </c>
-      <c r="C52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" t="s">
         <v>162</v>
-      </c>
-      <c r="C53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" t="s">
         <v>165</v>
-      </c>
-      <c r="C54" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" t="s">
         <v>168</v>
-      </c>
-      <c r="C55" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
         <v>171</v>
-      </c>
-      <c r="C56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D56" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" t="s">
         <v>174</v>
-      </c>
-      <c r="C57" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" t="s">
         <v>177</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>178</v>
-      </c>
-      <c r="C58" t="s">
-        <v>179</v>
-      </c>
-      <c r="D58" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" t="s">
         <v>181</v>
-      </c>
-      <c r="C59" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" t="s">
         <v>184</v>
       </c>
-      <c r="C60" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D139"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
         <v>186</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="str">
+        <f>IF(C5="",IF(B5=B6,"OK","ng"),1)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D69" si="0">IF(C6="",IF(B6=B7,"OK","ng"),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>ng</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1"/>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1"/>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1"/>
+      <c r="B46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1"/>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1"/>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1"/>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1"/>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1"/>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1"/>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1"/>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1"/>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1"/>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1"/>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1"/>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1"/>
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1"/>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1"/>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1"/>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1"/>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1"/>
+      <c r="B67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1"/>
+      <c r="B68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1"/>
+      <c r="B69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1"/>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="str">
+        <f t="shared" ref="D70:D133" si="1">IF(C70="",IF(B70=B71,"OK","ng"),1)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1"/>
+      <c r="B71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1"/>
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1"/>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1"/>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1"/>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1"/>
+      <c r="B76" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1"/>
+      <c r="B77" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1"/>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1"/>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1"/>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1"/>
+      <c r="B81" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="B82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" t="s">
+        <v>150</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="B89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>ng</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="B95" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>162</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" t="s">
+        <v>185</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" t="s">
+        <v>187</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>185</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" t="s">
+        <v>204</v>
+      </c>
+      <c r="C111" t="s">
+        <v>185</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" t="s">
+        <v>187</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" t="s">
+        <v>187</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>53</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" t="s">
+        <v>185</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" t="s">
+        <v>153</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" t="s">
+        <v>185</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120" t="s">
+        <v>187</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" t="s">
+        <v>184</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" t="s">
+        <v>185</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>185</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
+        <v>41</v>
+      </c>
+      <c r="C126" t="s">
+        <v>185</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" t="s">
+        <v>75</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128" t="s">
+        <v>185</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" t="s">
+        <v>185</v>
+      </c>
+      <c r="D134">
+        <f t="shared" ref="D134:D139" si="2">IF(C134="",IF(B134=B135,"OK","ng"),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" t="s">
+        <v>128</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136" t="s">
+        <v>185</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
+        <v>106</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>ng</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" t="s">
+        <v>109</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" t="s">
+        <v>109</v>
+      </c>
+      <c r="C139" t="s">
+        <v>185</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B141">
+    <sortCondition ref="B1:B141"/>
+  </sortState>
+  <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>